--- a/RESTful_DBAccessMethods.xlsx
+++ b/RESTful_DBAccessMethods.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\repos\PROJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\repos\PROJ\Travel-Experts-Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFA6FD9-2F95-4A49-8DAD-FA5E2F3C3C97}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF777EB-BBFC-4F22-B5AC-24228A866FF5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23340" windowHeight="15750" xr2:uid="{FAF48CAF-0C36-48CA-BE81-D54EEE776538}"/>
+    <workbookView xWindow="29130" yWindow="120" windowWidth="26730" windowHeight="15750" xr2:uid="{FAF48CAF-0C36-48CA-BE81-D54EEE776538}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>AgencyDb</t>
   </si>
@@ -60,9 +60,6 @@
     <t>TripTypeDb</t>
   </si>
   <si>
-    <t>Agency getAgency(int idAgency, ArrayList&lt;Agency&gt;  listAgency)</t>
-  </si>
-  <si>
     <t>ArrayList&lt;Agency&gt; getAgencyList()</t>
   </si>
   <si>
@@ -72,93 +69,54 @@
     <t>boolean updateAgent(Agent oldAgent, Agent newAgent)</t>
   </si>
   <si>
-    <t>int deleteAgent(Agent Agent)</t>
-  </si>
-  <si>
     <t>int addAgent(Agent newAgent)</t>
   </si>
   <si>
-    <t>Agent getAgent(int idAgent,ArrayList&lt;Agent&gt;  listAgent)</t>
-  </si>
-  <si>
     <t>ArrayList&lt;Booking&gt; getBookingList()</t>
   </si>
   <si>
-    <t>ArrayList&lt;Booking&gt; GetBookingOfCustomer(int customerId, ArrayList &lt;Booking&gt; listBookings )</t>
-  </si>
-  <si>
     <t>ArrayList&lt;Customer_rewards&gt; getCustomer_rewardsList()</t>
   </si>
   <si>
-    <t>ArrayList&lt;Customer_rewards&gt;  getCustomer_rewardsForCustomer(int idcustomer, ArrayList&lt;Customer_rewards&gt; customer_rewardsList  )</t>
-  </si>
-  <si>
     <t>ArrayList&lt;Customer&gt; getCustomerList()</t>
   </si>
   <si>
     <t>boolean updateCustomer(Customer oldCutomer, Customer newCustomer)</t>
   </si>
   <si>
-    <t>int deleteCustmer(Customer Customer)</t>
-  </si>
-  <si>
     <t>int addCustomer(Customer newCustomer)</t>
   </si>
   <si>
-    <t>Customer getCustomer(int idcustomer,ArrayList&lt;Customer&gt;  listCustomer)</t>
-  </si>
-  <si>
     <t>ArrayList&lt;Product&gt; getProductList()</t>
   </si>
   <si>
     <t>boolean updateProduct(Product oldProduct, Product newProduct)</t>
   </si>
   <si>
-    <t>int deleteProduct(Product Product)</t>
-  </si>
-  <si>
     <t>int addProduct(Product newProduct)</t>
   </si>
   <si>
-    <t>Product getProduct(int idprod,ArrayList&lt;Product&gt;  listProduct)</t>
-  </si>
-  <si>
     <t>ArrayList&lt;ProductSupplier&gt; getProductSupplierList()</t>
   </si>
   <si>
     <t>boolean updateProductSupplier(ProductSupplier oldProductSupplier, ProductSupplier newProductSupplier)</t>
   </si>
   <si>
-    <t>int deleteProductSupplier(ProductSupplier ProductSupplier)</t>
-  </si>
-  <si>
     <t>int addProductSupplier(ProductSupplier newProductSupplier)</t>
   </si>
   <si>
-    <t>ProductSupplier getProductSupplier(int idprodsup,ArrayList&lt;ProductSupplier&gt;  listProductSupplier)</t>
-  </si>
-  <si>
     <t>ArrayList&lt;Supplier&gt; getSupplierList()</t>
   </si>
   <si>
     <t>boolean updateSupplier(Supplier oldSupplier, Supplier newSupplier)</t>
   </si>
   <si>
-    <t>int deleteSupplier(Supplier Supplier)</t>
-  </si>
-  <si>
     <t>int addSupplier(Supplier newSupplier)</t>
   </si>
   <si>
-    <t>Supplier getSupplier(int idsup,ArrayList&lt;Supplier&gt;  listSupplier)</t>
-  </si>
-  <si>
     <t>ArrayList&lt;TripType&gt; getTripTypesList()</t>
   </si>
   <si>
-    <t>TripType  getTripTypeByid(String idtt, ArrayList&lt;TripType&gt; TripTypeList  )</t>
-  </si>
-  <si>
     <t>Tested</t>
   </si>
   <si>
@@ -184,6 +142,87 @@
   </si>
   <si>
     <t>should only return 1</t>
+  </si>
+  <si>
+    <t>Agency getAgency(int idAgency)</t>
+  </si>
+  <si>
+    <t>int deleteAgent(int agentid)</t>
+  </si>
+  <si>
+    <t>Agent getAgent(int idAgent)</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;Customer_rewards&gt;  getCustomer_rewardsForCustomer(int idcustomer )</t>
+  </si>
+  <si>
+    <t>Booking GetBookingById(int bookingId )</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;Booking&gt; GetBookingOfCustomer(int customerId )</t>
+  </si>
+  <si>
+    <t>Customer getCustomer(int idcustomer)</t>
+  </si>
+  <si>
+    <t>int deleteCustmer(int idcustomer)</t>
+  </si>
+  <si>
+    <t>Package_Product_SupplierDb</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;Package_Product_Supplier &gt; getPackageProductSupplierList()</t>
+  </si>
+  <si>
+    <t>boolean updatePackageProductSupplier(Package_Product_Supplier  oldPackageProductSupplier , Package_Product_Supplier newPackageProductSupplier)</t>
+  </si>
+  <si>
+    <t>int deletePackageProductSupplier(int packageId , int productSupplierId)</t>
+  </si>
+  <si>
+    <t>int addPackageProductSupplier(Package_Product_Supplier newPackageProductSupplier)</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;ProductSupplier&gt; getListProdSupplierOfPkgID(int PkgId)</t>
+  </si>
+  <si>
+    <t>PackageDb</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;Package&gt; getPackageList()</t>
+  </si>
+  <si>
+    <t>boolean updatePackage(Package  oldPackage , Package newPackage)</t>
+  </si>
+  <si>
+    <t>int deleteProduct(int productId)</t>
+  </si>
+  <si>
+    <t>Product getProduct(int idprod)</t>
+  </si>
+  <si>
+    <t>int deleteProductSupplier(int productSupplierId)</t>
+  </si>
+  <si>
+    <t>ProductSupplier getProductSupplier(int idprodsup)</t>
+  </si>
+  <si>
+    <t>int deleteSupplier(int supplierId)</t>
+  </si>
+  <si>
+    <t>Supplier getSupplier(int idsup)</t>
+  </si>
+  <si>
+    <t>TripType  getTripTypeByid(String idtt )</t>
+  </si>
+  <si>
+    <t>returns 0 rows</t>
+  </si>
+  <si>
+    <t>2 parameters!!</t>
+  </si>
+  <si>
+    <t>should only return 1, needs 2 params</t>
   </si>
 </sst>
 </file>
@@ -293,7 +332,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -321,7 +360,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -638,10 +678,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23085C91-1A2E-410C-BDED-734DBC610D8F}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,22 +697,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -685,13 +726,15 @@
       <c r="D3" s="8"/>
       <c r="E3" s="12"/>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
       <c r="C4" s="9"/>
+      <c r="D4" s="8"/>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -705,7 +748,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="12"/>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -714,15 +757,17 @@
       <c r="D8" s="13"/>
       <c r="E8" s="12"/>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="9"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -731,15 +776,16 @@
       <c r="D10" s="13"/>
       <c r="E10" s="12"/>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="13"/>
       <c r="E11" s="12"/>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -752,185 +798,258 @@
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="11" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="F16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="D18" s="8"/>
-      <c r="F18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E19" s="11" t="s">
-        <v>50</v>
-      </c>
+      <c r="B19" s="9"/>
+      <c r="D19" s="8"/>
       <c r="F19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="F23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
       <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="F24" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="F25" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" s="9"/>
       <c r="F26" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="F27" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F29" s="1" t="s">
-        <v>25</v>
+      <c r="C28" s="9"/>
+      <c r="F28" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F30" s="1" t="s">
-        <v>26</v>
+      <c r="A30" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="8"/>
       <c r="F31" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="9"/>
       <c r="F32" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="F33" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="8"/>
+      <c r="F34" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F36" s="1" t="s">
-        <v>30</v>
+      <c r="E35" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F37" s="1" t="s">
-        <v>31</v>
+      <c r="A37" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F38" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F39" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F40" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F43" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F44" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F45" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F46" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F47" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F50" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F51" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="8"/>
+      <c r="F64" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="8"/>
+      <c r="F65" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/RESTful_DBAccessMethods.xlsx
+++ b/RESTful_DBAccessMethods.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20339"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\repos\PROJ\Travel-Experts-Sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\repos\_PROJ\Travel-Experts-Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF777EB-BBFC-4F22-B5AC-24228A866FF5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B1532A-3B1D-4E7F-882B-EB1470B05A68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29130" yWindow="120" windowWidth="26730" windowHeight="15750" xr2:uid="{FAF48CAF-0C36-48CA-BE81-D54EEE776538}"/>
   </bookViews>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -682,7 +676,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RESTful_DBAccessMethods.xlsx
+++ b/RESTful_DBAccessMethods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20339"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\repos\_PROJ\Travel-Experts-Sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\repos\PROJ\Travel-Experts-Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B1532A-3B1D-4E7F-882B-EB1470B05A68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C6EAE3-590E-4F61-8251-E372864513E6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29130" yWindow="120" windowWidth="26730" windowHeight="15750" xr2:uid="{FAF48CAF-0C36-48CA-BE81-D54EEE776538}"/>
+    <workbookView xWindow="29130" yWindow="15" windowWidth="26730" windowHeight="15750" xr2:uid="{FAF48CAF-0C36-48CA-BE81-D54EEE776538}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>AgencyDb</t>
   </si>
@@ -217,13 +217,28 @@
   </si>
   <si>
     <t>should only return 1, needs 2 params</t>
+  </si>
+  <si>
+    <t>Impl Dummy</t>
+  </si>
+  <si>
+    <t>bad SQL syntax</t>
+  </si>
+  <si>
+    <t>foreign key constraint</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>clever incrementing Salah!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,8 +275,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +298,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -321,12 +348,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -356,10 +384,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -672,377 +702,483 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23085C91-1A2E-410C-BDED-734DBC610D8F}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="28" style="11" customWidth="1"/>
-    <col min="6" max="6" width="38.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="28" style="11" customWidth="1"/>
+    <col min="7" max="7" width="38.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="8"/>
-      <c r="F4" s="1" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="12"/>
-      <c r="F7" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="12"/>
+      <c r="G7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="1" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="9"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="12" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="1" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="1" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E15" s="11" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="F16" s="1" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="G16" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="G20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="D21" s="9"/>
+      <c r="G21" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="G22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="G23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="D19" s="8"/>
-      <c r="F19" s="1" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="E26" s="8"/>
+      <c r="G26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E20" s="11" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="F25" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="9"/>
-      <c r="F26" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="F27" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="9"/>
-      <c r="F28" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="8"/>
-      <c r="F31" s="1" t="s">
+      <c r="D31" s="9"/>
+      <c r="E31" s="8"/>
+      <c r="G31" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
-      <c r="F32" s="1" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="9"/>
+      <c r="G32" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="15"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="11" t="s">
+      <c r="D33" s="9"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="15"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="8"/>
-      <c r="F34" s="1" t="s">
+      <c r="D34" s="9"/>
+      <c r="E34" s="8"/>
+      <c r="G34" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E35" s="11" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F38" s="1" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="9"/>
+      <c r="F38" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F39" s="1" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="9"/>
+      <c r="F39" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F43" s="1" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="8"/>
+      <c r="G43" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F44" s="1" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="15"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F45" s="1" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="15"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="8"/>
+      <c r="G45" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F46" s="1" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="15"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="8"/>
+      <c r="G46" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F47" s="1" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="8"/>
+      <c r="G47" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F50" s="1" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="8"/>
+      <c r="G50" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F51" s="1" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="15"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="8"/>
+      <c r="G51" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F52" s="1" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="15"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F53" s="1" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="15"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="8"/>
+      <c r="G53" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F54" s="1" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="8"/>
+      <c r="G54" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F57" s="1" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="8"/>
+      <c r="G57" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F58" s="1" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="15"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F59" s="1" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="15"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="8"/>
+      <c r="G59" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F60" s="1" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="15"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F61" s="1" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="8"/>
+      <c r="G61" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="8"/>
-      <c r="F64" s="1" t="s">
+      <c r="D64" s="9"/>
+      <c r="E64" s="8"/>
+      <c r="G64" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
-      <c r="D65" s="8"/>
-      <c r="F65" s="1" t="s">
+      <c r="D65" s="9"/>
+      <c r="E65" s="8"/>
+      <c r="G65" s="1" t="s">
         <v>60</v>
       </c>
     </row>

--- a/RESTful_DBAccessMethods.xlsx
+++ b/RESTful_DBAccessMethods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\repos\PROJ\Travel-Experts-Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C6EAE3-590E-4F61-8251-E372864513E6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35B4B55-FAE4-48C3-9DC3-177A64FA5D4A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29130" yWindow="15" windowWidth="26730" windowHeight="15750" xr2:uid="{FAF48CAF-0C36-48CA-BE81-D54EEE776538}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>AgencyDb</t>
   </si>
@@ -210,9 +210,6 @@
     <t>TripType  getTripTypeByid(String idtt )</t>
   </si>
   <si>
-    <t>returns 0 rows</t>
-  </si>
-  <si>
     <t>2 parameters!!</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>clever incrementing Salah!</t>
+  </si>
+  <si>
+    <t>typo in method name, foreign key constraint</t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -383,7 +383,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
@@ -705,8 +704,8 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +715,7 @@
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="28" style="11" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" style="11" customWidth="1"/>
     <col min="7" max="7" width="38.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -725,7 +724,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>31</v>
@@ -783,7 +782,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="13"/>
@@ -793,18 +792,19 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="14"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="13"/>
@@ -864,7 +864,7 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="11" t="s">
         <v>35</v>
       </c>
@@ -873,31 +873,40 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
+      <c r="E20" s="8"/>
       <c r="G20" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="9"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="G21" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
+      <c r="E22" s="8"/>
       <c r="G22" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="9"/>
+      <c r="E23" s="8"/>
       <c r="G23" s="1" t="s">
         <v>43</v>
       </c>
@@ -910,6 +919,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="8"/>
       <c r="G26" s="1" t="s">
         <v>14</v>
@@ -944,19 +954,19 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="15"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="8"/>
       <c r="F33" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="15"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="8"/>
@@ -966,7 +976,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F35" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>50</v>
@@ -1010,19 +1020,19 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="15"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="8"/>
@@ -1031,7 +1041,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="15"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="8"/>
@@ -1063,7 +1073,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="15"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="8"/>
@@ -1072,19 +1082,19 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="15"/>
+      <c r="B52" s="14"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="8"/>
       <c r="F52" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="15"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="8"/>
@@ -1116,19 +1126,19 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="15"/>
+      <c r="B58" s="14"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="10"/>
       <c r="F58" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="15"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="8"/>
@@ -1137,14 +1147,14 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="15"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F60" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>68</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>26</v>

--- a/RESTful_DBAccessMethods.xlsx
+++ b/RESTful_DBAccessMethods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\repos\PROJ\Travel-Experts-Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35B4B55-FAE4-48C3-9DC3-177A64FA5D4A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5F0A88-C4E6-45BB-8FBD-A2BE80A2DAE8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29130" yWindow="15" windowWidth="26730" windowHeight="15750" xr2:uid="{FAF48CAF-0C36-48CA-BE81-D54EEE776538}"/>
+    <workbookView xWindow="29925" yWindow="90" windowWidth="26730" windowHeight="15750" xr2:uid="{FAF48CAF-0C36-48CA-BE81-D54EEE776538}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>AgencyDb</t>
   </si>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>typo in method name, foreign key constraint</t>
+  </si>
+  <si>
+    <t>RewardDb</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;Reward&gt; getRewardList()</t>
+  </si>
+  <si>
+    <t>Reward  getRewardByid(int idreward )</t>
   </si>
 </sst>
 </file>
@@ -354,7 +363,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -384,6 +393,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -701,11 +711,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23085C91-1A2E-410C-BDED-734DBC610D8F}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,53 +1121,36 @@
         <v>57</v>
       </c>
     </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E55" s="15"/>
+      <c r="F55"/>
+    </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="E56" s="15"/>
+      <c r="F56"/>
+      <c r="G56" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C57" s="9"/>
+      <c r="E57" s="15"/>
+      <c r="F57"/>
+      <c r="G57" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E58" s="15"/>
+      <c r="F58"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="8"/>
-      <c r="G57" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="14"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="14"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="8"/>
-      <c r="G59" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="14"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1166,29 +1159,73 @@
       <c r="D61" s="9"/>
       <c r="E61" s="8"/>
       <c r="G61" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="14"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>8</v>
+      <c r="B63" s="14"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="8"/>
+      <c r="G63" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="9"/>
+      <c r="B64" s="14"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="8"/>
+      <c r="E64" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="G64" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="8"/>
       <c r="G65" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="8"/>
+      <c r="G68" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="8"/>
+      <c r="G69" s="1" t="s">
         <v>60</v>
       </c>
     </row>

--- a/RESTful_DBAccessMethods.xlsx
+++ b/RESTful_DBAccessMethods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\repos\PROJ\Travel-Experts-Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5F0A88-C4E6-45BB-8FBD-A2BE80A2DAE8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1111A5F8-97F4-4A97-B385-4FCEC27738C4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29925" yWindow="90" windowWidth="26730" windowHeight="15750" xr2:uid="{FAF48CAF-0C36-48CA-BE81-D54EEE776538}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
   <si>
     <t>AgencyDb</t>
   </si>
@@ -241,6 +241,15 @@
   </si>
   <si>
     <t>Reward  getRewardByid(int idreward )</t>
+  </si>
+  <si>
+    <t>int deletePackage(int packageId)</t>
+  </si>
+  <si>
+    <t>int addPackage(Package newPackage)</t>
+  </si>
+  <si>
+    <t>Package getPackage(int idPackage)</t>
   </si>
 </sst>
 </file>
@@ -363,7 +372,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -394,6 +403,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -711,11 +721,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23085C91-1A2E-410C-BDED-734DBC610D8F}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,9 +849,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
         <v>34</v>
       </c>
@@ -858,9 +869,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
+      <c r="E16" s="8"/>
       <c r="G16" s="1" t="s">
         <v>41</v>
       </c>
@@ -998,7 +1010,10 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="9"/>
       <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="11" t="s">
         <v>34</v>
       </c>
@@ -1007,7 +1022,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="16"/>
       <c r="C39" s="9"/>
+      <c r="E39" s="10"/>
       <c r="F39" s="11" t="s">
         <v>34</v>
       </c>
@@ -1015,62 +1032,73 @@
         <v>53</v>
       </c>
     </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="14"/>
+      <c r="C40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="G40" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="14"/>
+      <c r="C41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="G41" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="8"/>
+      <c r="G42" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="8"/>
-      <c r="G43" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="14"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="14"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="8"/>
-      <c r="G45" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="14"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="8"/>
       <c r="G46" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="9"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="8"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="G47" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="14"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="8"/>
+      <c r="G48" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>6</v>
+      <c r="B49" s="14"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="8"/>
+      <c r="G49" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1079,136 +1107,140 @@
       <c r="D50" s="9"/>
       <c r="E50" s="8"/>
       <c r="G50" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="14"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="8"/>
-      <c r="G51" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="14"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>56</v>
+      <c r="A52" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="14"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="8"/>
       <c r="G53" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="9"/>
+      <c r="B54" s="14"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="8"/>
       <c r="G54" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="14"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="14"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="8"/>
+      <c r="G56" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="8"/>
+      <c r="G57" s="1" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E55" s="15"/>
-      <c r="F55"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="9"/>
-      <c r="E56" s="15"/>
-      <c r="F56"/>
-      <c r="G56" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C57" s="9"/>
-      <c r="E57" s="15"/>
-      <c r="F57"/>
-      <c r="G57" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E58" s="15"/>
       <c r="F58"/>
     </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="13"/>
+      <c r="F59"/>
+      <c r="G59" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="13"/>
+      <c r="F60"/>
+      <c r="G60" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E61" s="15"/>
+      <c r="F61"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="8"/>
-      <c r="G61" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="14"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="14"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="8"/>
-      <c r="G63" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="14"/>
+      <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>67</v>
-      </c>
+      <c r="E64" s="8"/>
       <c r="G64" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="9"/>
+      <c r="B65" s="14"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
-      <c r="E65" s="8"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="G65" s="1" t="s">
-        <v>59</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="14"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="8"/>
+      <c r="G66" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>8</v>
+      <c r="B67" s="14"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -1217,15 +1249,29 @@
       <c r="D68" s="9"/>
       <c r="E68" s="8"/>
       <c r="G68" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="8"/>
+      <c r="G71" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="8"/>
-      <c r="G69" s="1" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="8"/>
+      <c r="G72" s="1" t="s">
         <v>60</v>
       </c>
     </row>

--- a/RESTful_DBAccessMethods.xlsx
+++ b/RESTful_DBAccessMethods.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20339"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\repos\PROJ\Travel-Experts-Sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\repos\_PROJ\Travel-Experts-Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1111A5F8-97F4-4A97-B385-4FCEC27738C4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F233BE-B306-4DE7-A0A2-62292E05675A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29925" yWindow="90" windowWidth="26730" windowHeight="15750" xr2:uid="{FAF48CAF-0C36-48CA-BE81-D54EEE776538}"/>
   </bookViews>
@@ -724,8 +724,8 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RESTful_DBAccessMethods.xlsx
+++ b/RESTful_DBAccessMethods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\repos\_PROJ\Travel-Experts-Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F233BE-B306-4DE7-A0A2-62292E05675A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8F00B1-F483-4A7A-A720-BB3FB3BC29CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29925" yWindow="90" windowWidth="26730" windowHeight="15750" xr2:uid="{FAF48CAF-0C36-48CA-BE81-D54EEE776538}"/>
   </bookViews>
@@ -724,8 +724,8 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1075,7 @@
       <c r="B47" s="14"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="10"/>
+      <c r="E47" s="8"/>
       <c r="F47" s="11" t="s">
         <v>64</v>
       </c>

--- a/RESTful_DBAccessMethods.xlsx
+++ b/RESTful_DBAccessMethods.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20339"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\repos\_PROJ\Travel-Experts-Sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\repos\PROJ\Travel-Experts-Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8F00B1-F483-4A7A-A720-BB3FB3BC29CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CE4F64-E6C3-43D4-A9E4-7EA8702609B5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29925" yWindow="90" windowWidth="26730" windowHeight="15750" xr2:uid="{FAF48CAF-0C36-48CA-BE81-D54EEE776538}"/>
   </bookViews>
@@ -724,8 +724,8 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,7 +1212,7 @@
       <c r="B65" s="14"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
-      <c r="E65" s="10"/>
+      <c r="E65" s="8"/>
       <c r="F65" s="11" t="s">
         <v>64</v>
       </c>

--- a/RESTful_DBAccessMethods.xlsx
+++ b/RESTful_DBAccessMethods.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20339"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\repos\PROJ\Travel-Experts-Sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\repos\_PROJ\Travel-Experts-Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CE4F64-E6C3-43D4-A9E4-7EA8702609B5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF59678-371A-48C0-A323-A8783529DCC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29925" yWindow="90" windowWidth="26730" windowHeight="15750" xr2:uid="{FAF48CAF-0C36-48CA-BE81-D54EEE776538}"/>
   </bookViews>
@@ -724,8 +724,8 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,7 +898,7 @@
       <c r="B20" s="14"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="10"/>
       <c r="G20" s="1" t="s">
         <v>16</v>
       </c>
@@ -907,7 +907,7 @@
       <c r="B21" s="14"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="11" t="s">
         <v>68</v>
       </c>
